--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/REFrameworkNET5/StudioTemplates/REFramework/contentFiles/any/any/pt2/VisualBasic/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyDev\Documents\UiPath\Hallandale Pharmacy_Create Order\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7DB8D9-0D1B-40AD-BAD4-8B7D55DE0E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>ProcessABCQueue</t>
+  </si>
+  <si>
+    <t>HallandaleURL</t>
+  </si>
+  <si>
+    <t>HallandaleCredential</t>
+  </si>
+  <si>
+    <t>https://host6.lifefile.net:40443/application_main_zfw/login/login/vendor_name/hallandalerx/access/doctor</t>
   </si>
 </sst>
 </file>
@@ -212,10 +221,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -537,15 +546,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="1" max="1" width="43.53125" customWidth="1"/>
+    <col min="2" max="2" width="87.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.46484375" customWidth="1"/>
     <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -594,7 +603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="42.75">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -604,7 +613,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="28.5">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -615,8 +624,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1612,6 +1635,10 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;G</oddHeader>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1623,11 +1650,11 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.46484375" customWidth="1"/>
     <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1665,7 +1692,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="28.5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="28.5">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1790,7 +1817,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="28.5">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2775,6 +2802,10 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;G</oddHeader>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2782,14 +2813,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.86328125" customWidth="1"/>
+    <col min="2" max="2" width="30.1328125" customWidth="1"/>
     <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="4" max="26" width="65.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3830,5 +3861,9 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;G</oddHeader>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyDev\Documents\UiPath\Hallandale Pharmacy_Create Order\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7DB8D9-0D1B-40AD-BAD4-8B7D55DE0E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6BEE57-4758-4069-9A46-B03E65649A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -159,16 +159,46 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
-  </si>
-  <si>
-    <t>HallandaleURL</t>
-  </si>
-  <si>
-    <t>HallandaleCredential</t>
-  </si>
-  <si>
-    <t>https://host6.lifefile.net:40443/application_main_zfw/login/login/vendor_name/hallandalerx/access/doctor</t>
+    <t>PracticeBetterURL</t>
+  </si>
+  <si>
+    <t>GoogleSheetPath</t>
+  </si>
+  <si>
+    <t>GoogleSheetName</t>
+  </si>
+  <si>
+    <t>WaitL</t>
+  </si>
+  <si>
+    <t>WaitS</t>
+  </si>
+  <si>
+    <t>SheetID</t>
+  </si>
+  <si>
+    <t>https://my.practicebetter.io/#/p/home</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/16oT-_Hd0xKLtsyig4DS03FYxaXnCg6Cfunjw0Al24kg/edit#gid=0</t>
+  </si>
+  <si>
+    <t>Sheet1</t>
+  </si>
+  <si>
+    <t>16oT-_Hd0xKLtsyig4DS03FYxaXnCg6Cfunjw0Al24kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>OrderDataFilePath</t>
+  </si>
+  <si>
+    <t>C:\Users\MyDev\Documents\UiPath\Hallandale Pharmacy_Create Order\Data\Input\</t>
+  </si>
+  <si>
+    <t>PriscriptionOrderData</t>
   </si>
 </sst>
 </file>
@@ -544,16 +574,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.53125" customWidth="1"/>
-    <col min="2" max="2" width="87.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.06640625" customWidth="1"/>
     <col min="3" max="3" width="81.46484375" customWidth="1"/>
     <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
@@ -597,7 +627,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -612,16 +642,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.5">
+    <row r="4" spans="1:26" ht="28.5">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -629,7 +666,7 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -637,34 +674,66 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="17" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:1" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:1" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1623,14 +1692,6 @@
     <row r="988" ht="14.25" customHeight="1"/>
     <row r="989" ht="14.25" customHeight="1"/>
     <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1646,7 +1707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyDev\Documents\UiPath\Hallandale Pharmacy_Create Order\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyDev\Documents\UiPath\PriscriptionOrder_Dispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6BEE57-4758-4069-9A46-B03E65649A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DCD929-C923-43DF-85E0-654255349AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,10 +195,10 @@
     <t>OrderDataFilePath</t>
   </si>
   <si>
-    <t>C:\Users\MyDev\Documents\UiPath\Hallandale Pharmacy_Create Order\Data\Input\</t>
-  </si>
-  <si>
     <t>PriscriptionOrderData</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\Documents\PriscriptionOrderExportData\</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -627,7 +627,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -706,7 +706,7 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyDev\Documents\UiPath\PriscriptionOrder_Dispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DCD929-C923-43DF-85E0-654255349AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC3EE94-468A-4FC2-90CC-C35FF3BAE307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,9 +183,6 @@
     <t>https://docs.google.com/spreadsheets/d/16oT-_Hd0xKLtsyig4DS03FYxaXnCg6Cfunjw0Al24kg/edit#gid=0</t>
   </si>
   <si>
-    <t>Sheet1</t>
-  </si>
-  <si>
     <t>16oT-_Hd0xKLtsyig4DS03FYxaXnCg6Cfunjw0Al24kg</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>C:\Users\Administrator\Documents\PriscriptionOrderExportData\</t>
+  </si>
+  <si>
+    <t>For Bot</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" customHeight="1"/>
@@ -627,7 +627,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -674,7 +674,7 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -698,15 +698,15 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -716,7 +716,7 @@
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:1" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="14.25" customHeight="1"/>
